--- a/reports/explainability/Wytłumaczalność rekomendacji (Odpowiedzi).xlsx
+++ b/reports/explainability/Wytłumaczalność rekomendacji (Odpowiedzi).xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="86">
   <si>
     <t>Sygnatura czasowa</t>
   </si>
@@ -627,7 +627,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" totalsRowCount="1" headerRowCount="0" ref="A1:BR36" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" totalsRowCount="1" headerRowCount="0" ref="A1:BR37" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="70">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -7512,292 +7512,474 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="17"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18">
+      <c r="A36" s="12">
+        <v>45816.665796851856</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G36" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="I36" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="J36" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="K36" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="L36" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="M36" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="N36" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="P36" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="Q36" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="R36" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="S36" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="T36" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="U36" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="W36" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="X36" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="Y36" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="Z36" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="AA36" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="AB36" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="AD36" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="AE36" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="AF36" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="AG36" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="AH36" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="AI36" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="AK36" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="AL36" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="AM36" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="AN36" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="AO36" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="AP36" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="AR36" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="AS36" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="AT36" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="AU36" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="AV36" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="AW36" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="AY36" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="AZ36" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="BA36" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="BB36" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="BC36" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="BD36" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="BF36" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="BG36" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="BH36" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="BI36" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="BJ36" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="BK36" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="BM36" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="BN36" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="BO36" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="BP36" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="BQ36" s="13">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="17"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18">
         <f>AVERAGE(Form_Responses1[Na ile poniższe wyjaśnienie Pana/Panią satysfakcjonuje?
 Jako, że obejrzał/a Pan/Pani film "Ich troje" i Pana/Panią zachwycił, zarekomendowaliśmy film "Tylko ty", który jest bardzo podobny.])</f>
-        <v>3.588235294</v>
-      </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="18">
+        <v>3.6</v>
+      </c>
+      <c r="H37" s="19"/>
+      <c r="I37" s="18">
         <f>AVERAGE(Form_Responses1[Proste: Wyjaśnienie było łatwe do zrozumienia, ponieważ opierało się na mojej wiedzy i doświadczeniu.
 (Dobre wyjaśnienie powinno być przedstawione w sposób zrozumiały dla użytkownika, bez konieczności posiadania specjalistycznej wiedzy technicznej)])</f>
-        <v>4.235294118</v>
-      </c>
-      <c r="J36" s="18">
+        <v>4.228571429</v>
+      </c>
+      <c r="J37" s="18">
         <f>AVERAGE(Form_Responses1[Elastyczne: Wyjaśnienie pozwoliło mi skupić się na tych aspektach, które były dla mnie najważniejsze, bez potrzeby poznawania całego procesu działania systemu.
 (Użytkownik powinien mieć możliwość dostosowania głębokości i zakresu wyjaśnienia do swoich potrzeb – nie musi znać wszystkiego, by zrozumieć to, co dla niego istotne)])</f>
-        <v>3.882352941</v>
-      </c>
-      <c r="K36" s="18">
+        <v>3.885714286</v>
+      </c>
+      <c r="K37" s="18">
         <f>AVERAGE(Form_Responses1[Ugruntowane: Wyjaśnienie było powiązane z konkretnymi zasadami i etapami działania systemu, które doprowadziły do danej rekomendacji.
 (Wyjaśnienie powinno być zakorzenione w rzeczywistym przebiegu działania systemu, pokazując, które reguły, dane lub etapy miały wpływ na wynik)])</f>
-        <v>3.705882353</v>
-      </c>
-      <c r="L36" s="18">
+        <v>3.714285714</v>
+      </c>
+      <c r="L37" s="18">
         <f>AVERAGE(Form_Responses1[Rozszerzalne: Wyjaśnienie odwoływało się do ogólnych pojęć i kategorii, które pomagają zrozumieć również inne, podobne przypadki.
 (Dobre wyjaśnienie może być wykorzystane także w innych kontekstach – bazuje na szerszym rozumieniu pojęć i mechanizmów, nie tylko na konkretnym przypadku)])</f>
-        <v>3.705882353</v>
-      </c>
-      <c r="M36" s="18">
+        <v>3.714285714</v>
+      </c>
+      <c r="M37" s="18">
         <f>AVERAGE(Form_Responses1[Oparte na źródłach: Wyjaśnienie zawierało odniesienia do źródeł danych i elementów procesu, które zostały użyte do podjęcia decyzji.
 (Użytkownik powinien wiedzieć, skąd pochodzą informacje wykorzystane w wyjaśnieniu – np. dane wejściowe, reguły lub modele)])</f>
-        <v>3.235294118</v>
-      </c>
-      <c r="N36" s="18">
+        <v>3.257142857</v>
+      </c>
+      <c r="N37" s="18">
         <f>AVERAGE(Form_Responses1[Na ile poniższe wyjaśnienie Pana/Panią satysfakcjonuje?
 Dwójce z trzech użytkowników, którzy mają podobne upodobania do Pana/Pani spodobał się film "Park Jurajski".])</f>
-        <v>3.647058824</v>
-      </c>
-      <c r="O36" s="19"/>
-      <c r="P36" s="18">
+        <v>3.628571429</v>
+      </c>
+      <c r="O37" s="19"/>
+      <c r="P37" s="18">
+        <f>AVERAGE(Form_Responses1[Proste: Wyjaśnienie było łatwe do zrozumienia, ponieważ opierało się na mojej wiedzy i doświadczeniu.
+(Dobre wyjaśnienie powinno być przedstawione w sposób zrozumiały dla użytkownika, bez konieczności posiadania specjalistycznej wiedzy technicznej)])</f>
+        <v>3.971428571</v>
+      </c>
+      <c r="Q37" s="18">
+        <f>AVERAGE(Form_Responses1[Elastyczne: Wyjaśnienie pozwoliło mi skupić się na tych aspektach, które były dla mnie najważniejsze, bez potrzeby poznawania całego procesu działania systemu.
+(Użytkownik powinien mieć możliwość dostosowania głębokości i zakresu wyjaśnienia do swoich potrzeb – nie musi znać wszystkiego, by zrozumieć to, co dla niego istotne)])</f>
+        <v>3.571428571</v>
+      </c>
+      <c r="R37" s="18">
+        <f>AVERAGE(Form_Responses1[Ugruntowane: Wyjaśnienie było powiązane z konkretnymi zasadami i etapami działania systemu, które doprowadziły do danej rekomendacji.
+(Wyjaśnienie powinno być zakorzenione w rzeczywistym przebiegu działania systemu, pokazując, które reguły, dane lub etapy miały wpływ na wynik)])</f>
+        <v>3.657142857</v>
+      </c>
+      <c r="S37" s="18">
+        <f>AVERAGE(Form_Responses1[Rozszerzalne: Wyjaśnienie odwoływało się do ogólnych pojęć i kategorii, które pomagają zrozumieć również inne, podobne przypadki.
+(Dobre wyjaśnienie może być wykorzystane także w innych kontekstach – bazuje na szerszym rozumieniu pojęć i mechanizmów, nie tylko na konkretnym przypadku)])</f>
+        <v>3.857142857</v>
+      </c>
+      <c r="T37" s="18">
+        <f>AVERAGE(Form_Responses1[Oparte na źródłach: Wyjaśnienie zawierało odniesienia do źródeł danych i elementów procesu, które zostały użyte do podjęcia decyzji.
+(Użytkownik powinien wiedzieć, skąd pochodzą informacje wykorzystane w wyjaśnieniu – np. dane wejściowe, reguły lub modele)])</f>
+        <v>3.514285714</v>
+      </c>
+      <c r="U37" s="18">
+        <f>AVERAGE(Form_Responses1[Na ile poniższe wyjaśnienie Pana/Panią satysfakcjonuje?
+Na podstawie Pana/Pani historii obejrzanych filmów oraz ocen został zarekomendowany film "Spragnieni miłości".])</f>
+        <v>3.314285714</v>
+      </c>
+      <c r="V37" s="19"/>
+      <c r="W37" s="18">
+        <f>AVERAGE(Form_Responses1[Proste: Wyjaśnienie było łatwe do zrozumienia, ponieważ opierało się na mojej wiedzy i doświadczeniu.
+(Dobre wyjaśnienie powinno być przedstawione w sposób zrozumiały dla użytkownika, bez konieczności posiadania specjalistycznej wiedzy technicznej)])</f>
+        <v>3.657142857</v>
+      </c>
+      <c r="X37" s="18">
+        <f>AVERAGE(Form_Responses1[Elastyczne: Wyjaśnienie pozwoliło mi skupić się na tych aspektach, które były dla mnie najważniejsze, bez potrzeby poznawania całego procesu działania systemu.
+(Użytkownik powinien mieć możliwość dostosowania głębokości i zakresu wyjaśnienia do swoich potrzeb – nie musi znać wszystkiego, by zrozumieć to, co dla niego istotne)])</f>
+        <v>3.6</v>
+      </c>
+      <c r="Y37" s="18">
+        <f>AVERAGE(Form_Responses1[Ugruntowane: Wyjaśnienie było powiązane z konkretnymi zasadami i etapami działania systemu, które doprowadziły do danej rekomendacji.
+(Wyjaśnienie powinno być zakorzenione w rzeczywistym przebiegu działania systemu, pokazując, które reguły, dane lub etapy miały wpływ na wynik)])</f>
+        <v>3.371428571</v>
+      </c>
+      <c r="Z37" s="18">
+        <f>AVERAGE(Form_Responses1[Rozszerzalne: Wyjaśnienie odwoływało się do ogólnych pojęć i kategorii, które pomagają zrozumieć również inne, podobne przypadki.
+(Dobre wyjaśnienie może być wykorzystane także w innych kontekstach – bazuje na szerszym rozumieniu pojęć i mechanizmów, nie tylko na konkretnym przypadku)])</f>
+        <v>3.485714286</v>
+      </c>
+      <c r="AA37" s="18">
+        <f>AVERAGE(Form_Responses1[Oparte na źródłach: Wyjaśnienie zawierało odniesienia do źródeł danych i elementów procesu, które zostały użyte do podjęcia decyzji.
+(Użytkownik powinien wiedzieć, skąd pochodzą informacje wykorzystane w wyjaśnieniu – np. dane wejściowe, reguły lub modele)])</f>
+        <v>2.971428571</v>
+      </c>
+      <c r="AB37" s="18">
+        <f>AVERAGE(Form_Responses1[Na ile poniższe wyjaśnienie Pana/Panią satysfakcjonuje?
+Jako, że kupił Pan/Pani czerwony telefon Nokia i był/a nim Pan/Pani zachwycony/a, zarekomendowaliśmy grafitowy telefon Nokia, który jest bardzo podobny.])</f>
+        <v>3.457142857</v>
+      </c>
+      <c r="AC37" s="19"/>
+      <c r="AD37" s="18">
+        <f>AVERAGE(Form_Responses1[Proste: Wyjaśnienie było łatwe do zrozumienia, ponieważ opierało się na mojej wiedzy i doświadczeniu.
+(Dobre wyjaśnienie powinno być przedstawione w sposób zrozumiały dla użytkownika, bez konieczności posiadania specjalistycznej wiedzy technicznej)])</f>
+        <v>4.142857143</v>
+      </c>
+      <c r="AE37" s="18">
+        <f>AVERAGE(Form_Responses1[Elastyczne: Wyjaśnienie pozwoliło mi skupić się na tych aspektach, które były dla mnie najważniejsze, bez potrzeby poznawania całego procesu działania systemu.
+(Użytkownik powinien mieć możliwość dostosowania głębokości i zakresu wyjaśnienia do swoich potrzeb – nie musi znać wszystkiego, by zrozumieć to, co dla niego istotne)])</f>
+        <v>3.628571429</v>
+      </c>
+      <c r="AF37" s="18">
+        <f>AVERAGE(Form_Responses1[Ugruntowane: Wyjaśnienie było powiązane z konkretnymi zasadami i etapami działania systemu, które doprowadziły do danej rekomendacji.
+(Wyjaśnienie powinno być zakorzenione w rzeczywistym przebiegu działania systemu, pokazując, które reguły, dane lub etapy miały wpływ na wynik)])</f>
+        <v>3.542857143</v>
+      </c>
+      <c r="AG37" s="18">
+        <f>AVERAGE(Form_Responses1[Rozszerzalne: Wyjaśnienie odwoływało się do ogólnych pojęć i kategorii, które pomagają zrozumieć również inne, podobne przypadki.
+(Dobre wyjaśnienie może być wykorzystane także w innych kontekstach – bazuje na szerszym rozumieniu pojęć i mechanizmów, nie tylko na konkretnym przypadku)])</f>
+        <v>3.485714286</v>
+      </c>
+      <c r="AH37" s="18">
+        <f>AVERAGE(Form_Responses1[Oparte na źródłach: Wyjaśnienie zawierało odniesienia do źródeł danych i elementów procesu, które zostały użyte do podjęcia decyzji.
+(Użytkownik powinien wiedzieć, skąd pochodzą informacje wykorzystane w wyjaśnieniu – np. dane wejściowe, reguły lub modele)])</f>
+        <v>3.571428571</v>
+      </c>
+      <c r="AI37" s="18">
+        <f>AVERAGE(Form_Responses1[Na ile poniższe wyjaśnienie Pana/Panią satysfakcjonuje?
+Jeden z czterech użytkowników, którzy mają podobne upodobania do Pana/Pani kupił smartwatch Fire-Boltt.])</f>
+        <v>3.228571429</v>
+      </c>
+      <c r="AJ37" s="19"/>
+      <c r="AK37" s="18">
+        <f>AVERAGE(Form_Responses1[Proste: Wyjaśnienie było łatwe do zrozumienia, ponieważ opierało się na mojej wiedzy i doświadczeniu.
+(Dobre wyjaśnienie powinno być przedstawione w sposób zrozumiały dla użytkownika, bez konieczności posiadania specjalistycznej wiedzy technicznej)])</f>
+        <v>3.4</v>
+      </c>
+      <c r="AL37" s="18">
+        <f>AVERAGE(Form_Responses1[Elastyczne: Wyjaśnienie pozwoliło mi skupić się na tych aspektach, które były dla mnie najważniejsze, bez potrzeby poznawania całego procesu działania systemu.
+(Użytkownik powinien mieć możliwość dostosowania głębokości i zakresu wyjaśnienia do swoich potrzeb – nie musi znać wszystkiego, by zrozumieć to, co dla niego istotne)])</f>
+        <v>3.485714286</v>
+      </c>
+      <c r="AM37" s="18">
+        <f>AVERAGE(Form_Responses1[Ugruntowane: Wyjaśnienie było powiązane z konkretnymi zasadami i etapami działania systemu, które doprowadziły do danej rekomendacji.
+(Wyjaśnienie powinno być zakorzenione w rzeczywistym przebiegu działania systemu, pokazując, które reguły, dane lub etapy miały wpływ na wynik)])</f>
+        <v>3.2</v>
+      </c>
+      <c r="AN37" s="18">
+        <f>AVERAGE(Form_Responses1[Rozszerzalne: Wyjaśnienie odwoływało się do ogólnych pojęć i kategorii, które pomagają zrozumieć również inne, podobne przypadki.
+(Dobre wyjaśnienie może być wykorzystane także w innych kontekstach – bazuje na szerszym rozumieniu pojęć i mechanizmów, nie tylko na konkretnym przypadku)])</f>
+        <v>3.571428571</v>
+      </c>
+      <c r="AO37" s="18">
+        <f>AVERAGE(Form_Responses1[Oparte na źródłach: Wyjaśnienie zawierało odniesienia do źródeł danych i elementów procesu, które zostały użyte do podjęcia decyzji.
+(Użytkownik powinien wiedzieć, skąd pochodzą informacje wykorzystane w wyjaśnieniu – np. dane wejściowe, reguły lub modele)])</f>
+        <v>3.342857143</v>
+      </c>
+      <c r="AP37" s="18">
+        <f>AVERAGE(Form_Responses1[Na ile poniższe wyjaśnienie Pana/Panią satysfakcjonuje?
+Na podstawie Pana/Pani kupionych produktów oraz ocen został zarekomendowany Samsung Galaxy M13 5G.])</f>
+        <v>3.971428571</v>
+      </c>
+      <c r="AQ37" s="19"/>
+      <c r="AR37" s="18">
+        <f>AVERAGE(Form_Responses1[Proste: Wyjaśnienie było łatwe do zrozumienia, ponieważ opierało się na mojej wiedzy i doświadczeniu.
+(Dobre wyjaśnienie powinno być przedstawione w sposób zrozumiały dla użytkownika, bez konieczności posiadania specjalistycznej wiedzy technicznej)])</f>
+        <v>3.8</v>
+      </c>
+      <c r="AS37" s="18">
+        <f>AVERAGE(Form_Responses1[Elastyczne: Wyjaśnienie pozwoliło mi skupić się na tych aspektach, które były dla mnie najważniejsze, bez potrzeby poznawania całego procesu działania systemu.
+(Użytkownik powinien mieć możliwość dostosowania głębokości i zakresu wyjaśnienia do swoich potrzeb – nie musi znać wszystkiego, by zrozumieć to, co dla niego istotne)])</f>
+        <v>3.714285714</v>
+      </c>
+      <c r="AT37" s="18">
+        <f>AVERAGE(Form_Responses1[Ugruntowane: Wyjaśnienie było powiązane z konkretnymi zasadami i etapami działania systemu, które doprowadziły do danej rekomendacji.
+(Wyjaśnienie powinno być zakorzenione w rzeczywistym przebiegu działania systemu, pokazując, które reguły, dane lub etapy miały wpływ na wynik)])</f>
+        <v>3.542857143</v>
+      </c>
+      <c r="AU37" s="18">
+        <f>AVERAGE(Form_Responses1[Rozszerzalne: Wyjaśnienie odwoływało się do ogólnych pojęć i kategorii, które pomagają zrozumieć również inne, podobne przypadki.
+(Dobre wyjaśnienie może być wykorzystane także w innych kontekstach – bazuje na szerszym rozumieniu pojęć i mechanizmów, nie tylko na konkretnym przypadku)])</f>
+        <v>3.571428571</v>
+      </c>
+      <c r="AV37" s="18">
+        <f>AVERAGE(Form_Responses1[Oparte na źródłach: Wyjaśnienie zawierało odniesienia do źródeł danych i elementów procesu, które zostały użyte do podjęcia decyzji.
+(Użytkownik powinien wiedzieć, skąd pochodzą informacje wykorzystane w wyjaśnieniu – np. dane wejściowe, reguły lub modele)])</f>
+        <v>3.6</v>
+      </c>
+      <c r="AW37" s="18">
+        <f>AVERAGE(Form_Responses1[Na ile poniższe wyjaśnienie Pana/Panią satysfakcjonuje?
+Jako, zainteresował/a się Pan/Pani postem "5 - fotografia sukces" i się Panu/Pani spodobał, zarekomendowaliśmy post "fotografia sukces", który jest podobny.])</f>
+        <v>4</v>
+      </c>
+      <c r="AX37" s="19"/>
+      <c r="AY37" s="18">
         <f>AVERAGE(Form_Responses1[Proste: Wyjaśnienie było łatwe do zrozumienia, ponieważ opierało się na mojej wiedzy i doświadczeniu.
 (Dobre wyjaśnienie powinno być przedstawione w sposób zrozumiały dla użytkownika, bez konieczności posiadania specjalistycznej wiedzy technicznej)])</f>
         <v>4</v>
       </c>
-      <c r="Q36" s="18">
+      <c r="AZ37" s="18">
         <f>AVERAGE(Form_Responses1[Elastyczne: Wyjaśnienie pozwoliło mi skupić się na tych aspektach, które były dla mnie najważniejsze, bez potrzeby poznawania całego procesu działania systemu.
 (Użytkownik powinien mieć możliwość dostosowania głębokości i zakresu wyjaśnienia do swoich potrzeb – nie musi znać wszystkiego, by zrozumieć to, co dla niego istotne)])</f>
-        <v>3.588235294</v>
-      </c>
-      <c r="R36" s="18">
+        <v>3.828571429</v>
+      </c>
+      <c r="BA37" s="18">
         <f>AVERAGE(Form_Responses1[Ugruntowane: Wyjaśnienie było powiązane z konkretnymi zasadami i etapami działania systemu, które doprowadziły do danej rekomendacji.
 (Wyjaśnienie powinno być zakorzenione w rzeczywistym przebiegu działania systemu, pokazując, które reguły, dane lub etapy miały wpływ na wynik)])</f>
-        <v>3.676470588</v>
-      </c>
-      <c r="S36" s="18">
+        <v>3.714285714</v>
+      </c>
+      <c r="BB37" s="18">
         <f>AVERAGE(Form_Responses1[Rozszerzalne: Wyjaśnienie odwoływało się do ogólnych pojęć i kategorii, które pomagają zrozumieć również inne, podobne przypadki.
 (Dobre wyjaśnienie może być wykorzystane także w innych kontekstach – bazuje na szerszym rozumieniu pojęć i mechanizmów, nie tylko na konkretnym przypadku)])</f>
-        <v>3.882352941</v>
-      </c>
-      <c r="T36" s="18">
+        <v>3.857142857</v>
+      </c>
+      <c r="BC37" s="18">
         <f>AVERAGE(Form_Responses1[Oparte na źródłach: Wyjaśnienie zawierało odniesienia do źródeł danych i elementów procesu, które zostały użyte do podjęcia decyzji.
 (Użytkownik powinien wiedzieć, skąd pochodzą informacje wykorzystane w wyjaśnieniu – np. dane wejściowe, reguły lub modele)])</f>
-        <v>3.529411765</v>
-      </c>
-      <c r="U36" s="18">
+        <v>3.514285714</v>
+      </c>
+      <c r="BD37" s="18">
         <f>AVERAGE(Form_Responses1[Na ile poniższe wyjaśnienie Pana/Panią satysfakcjonuje?
-Na podstawie Pana/Pani historii obejrzanych filmów oraz ocen został zarekomendowany film "Spragnieni miłości".])</f>
-        <v>3.294117647</v>
-      </c>
-      <c r="V36" s="19"/>
-      <c r="W36" s="18">
+Dwójce z czterech użytkowników, którzy mają podobne upodobania do Pana/Pani spodobał się ten post.])</f>
+        <v>3.485714286</v>
+      </c>
+      <c r="BE37" s="19"/>
+      <c r="BF37" s="18">
         <f>AVERAGE(Form_Responses1[Proste: Wyjaśnienie było łatwe do zrozumienia, ponieważ opierało się na mojej wiedzy i doświadczeniu.
 (Dobre wyjaśnienie powinno być przedstawione w sposób zrozumiały dla użytkownika, bez konieczności posiadania specjalistycznej wiedzy technicznej)])</f>
-        <v>3.676470588</v>
-      </c>
-      <c r="X36" s="18">
+        <v>3.685714286</v>
+      </c>
+      <c r="BG37" s="18">
         <f>AVERAGE(Form_Responses1[Elastyczne: Wyjaśnienie pozwoliło mi skupić się na tych aspektach, które były dla mnie najważniejsze, bez potrzeby poznawania całego procesu działania systemu.
 (Użytkownik powinien mieć możliwość dostosowania głębokości i zakresu wyjaśnienia do swoich potrzeb – nie musi znać wszystkiego, by zrozumieć to, co dla niego istotne)])</f>
-        <v>3.617647059</v>
-      </c>
-      <c r="Y36" s="18">
+        <v>3.685714286</v>
+      </c>
+      <c r="BH37" s="18">
         <f>AVERAGE(Form_Responses1[Ugruntowane: Wyjaśnienie było powiązane z konkretnymi zasadami i etapami działania systemu, które doprowadziły do danej rekomendacji.
 (Wyjaśnienie powinno być zakorzenione w rzeczywistym przebiegu działania systemu, pokazując, które reguły, dane lub etapy miały wpływ na wynik)])</f>
-        <v>3.352941176</v>
-      </c>
-      <c r="Z36" s="18">
+        <v>3.714285714</v>
+      </c>
+      <c r="BI37" s="18">
         <f>AVERAGE(Form_Responses1[Rozszerzalne: Wyjaśnienie odwoływało się do ogólnych pojęć i kategorii, które pomagają zrozumieć również inne, podobne przypadki.
 (Dobre wyjaśnienie może być wykorzystane także w innych kontekstach – bazuje na szerszym rozumieniu pojęć i mechanizmów, nie tylko na konkretnym przypadku)])</f>
-        <v>3.470588235</v>
-      </c>
-      <c r="AA36" s="18">
+        <v>3.8</v>
+      </c>
+      <c r="BJ37" s="18">
         <f>AVERAGE(Form_Responses1[Oparte na źródłach: Wyjaśnienie zawierało odniesienia do źródeł danych i elementów procesu, które zostały użyte do podjęcia decyzji.
 (Użytkownik powinien wiedzieć, skąd pochodzą informacje wykorzystane w wyjaśnieniu – np. dane wejściowe, reguły lub modele)])</f>
-        <v>2.941176471</v>
-      </c>
-      <c r="AB36" s="18">
+        <v>3.514285714</v>
+      </c>
+      <c r="BK37" s="18">
         <f>AVERAGE(Form_Responses1[Na ile poniższe wyjaśnienie Pana/Panią satysfakcjonuje?
-Jako, że kupił Pan/Pani czerwony telefon Nokia i był/a nim Pan/Pani zachwycony/a, zarekomendowaliśmy grafitowy telefon Nokia, który jest bardzo podobny.])</f>
-        <v>3.441176471</v>
-      </c>
-      <c r="AC36" s="19"/>
-      <c r="AD36" s="18">
+Na podstawie Pana/Pani historii obejrzanych postów oraz ocen został zarekomendowany post "Pojedynek na RYSOWANIE!".])</f>
+        <v>3.542857143</v>
+      </c>
+      <c r="BL37" s="19"/>
+      <c r="BM37" s="18">
         <f>AVERAGE(Form_Responses1[Proste: Wyjaśnienie było łatwe do zrozumienia, ponieważ opierało się na mojej wiedzy i doświadczeniu.
 (Dobre wyjaśnienie powinno być przedstawione w sposób zrozumiały dla użytkownika, bez konieczności posiadania specjalistycznej wiedzy technicznej)])</f>
-        <v>4.147058824</v>
-      </c>
-      <c r="AE36" s="18">
+        <v>3.657142857</v>
+      </c>
+      <c r="BN37" s="18">
         <f>AVERAGE(Form_Responses1[Elastyczne: Wyjaśnienie pozwoliło mi skupić się na tych aspektach, które były dla mnie najważniejsze, bez potrzeby poznawania całego procesu działania systemu.
 (Użytkownik powinien mieć możliwość dostosowania głębokości i zakresu wyjaśnienia do swoich potrzeb – nie musi znać wszystkiego, by zrozumieć to, co dla niego istotne)])</f>
-        <v>3.647058824</v>
-      </c>
-      <c r="AF36" s="18">
+        <v>3.314285714</v>
+      </c>
+      <c r="BO37" s="18">
         <f>AVERAGE(Form_Responses1[Ugruntowane: Wyjaśnienie było powiązane z konkretnymi zasadami i etapami działania systemu, które doprowadziły do danej rekomendacji.
 (Wyjaśnienie powinno być zakorzenione w rzeczywistym przebiegu działania systemu, pokazując, które reguły, dane lub etapy miały wpływ na wynik)])</f>
-        <v>3.558823529</v>
-      </c>
-      <c r="AG36" s="18">
+        <v>3.285714286</v>
+      </c>
+      <c r="BP37" s="18">
         <f>AVERAGE(Form_Responses1[Rozszerzalne: Wyjaśnienie odwoływało się do ogólnych pojęć i kategorii, które pomagają zrozumieć również inne, podobne przypadki.
 (Dobre wyjaśnienie może być wykorzystane także w innych kontekstach – bazuje na szerszym rozumieniu pojęć i mechanizmów, nie tylko na konkretnym przypadku)])</f>
-        <v>3.470588235</v>
-      </c>
-      <c r="AH36" s="18">
+        <v>3.428571429</v>
+      </c>
+      <c r="BQ37" s="18">
         <f>AVERAGE(Form_Responses1[Oparte na źródłach: Wyjaśnienie zawierało odniesienia do źródeł danych i elementów procesu, które zostały użyte do podjęcia decyzji.
 (Użytkownik powinien wiedzieć, skąd pochodzą informacje wykorzystane w wyjaśnieniu – np. dane wejściowe, reguły lub modele)])</f>
-        <v>3.558823529</v>
-      </c>
-      <c r="AI36" s="18">
-        <f>AVERAGE(Form_Responses1[Na ile poniższe wyjaśnienie Pana/Panią satysfakcjonuje?
-Jeden z czterech użytkowników, którzy mają podobne upodobania do Pana/Pani kupił smartwatch Fire-Boltt.])</f>
-        <v>3.205882353</v>
-      </c>
-      <c r="AJ36" s="19"/>
-      <c r="AK36" s="18">
-        <f>AVERAGE(Form_Responses1[Proste: Wyjaśnienie było łatwe do zrozumienia, ponieważ opierało się na mojej wiedzy i doświadczeniu.
-(Dobre wyjaśnienie powinno być przedstawione w sposób zrozumiały dla użytkownika, bez konieczności posiadania specjalistycznej wiedzy technicznej)])</f>
-        <v>3.411764706</v>
-      </c>
-      <c r="AL36" s="18">
-        <f>AVERAGE(Form_Responses1[Elastyczne: Wyjaśnienie pozwoliło mi skupić się na tych aspektach, które były dla mnie najważniejsze, bez potrzeby poznawania całego procesu działania systemu.
-(Użytkownik powinien mieć możliwość dostosowania głębokości i zakresu wyjaśnienia do swoich potrzeb – nie musi znać wszystkiego, by zrozumieć to, co dla niego istotne)])</f>
-        <v>3.470588235</v>
-      </c>
-      <c r="AM36" s="18">
-        <f>AVERAGE(Form_Responses1[Ugruntowane: Wyjaśnienie było powiązane z konkretnymi zasadami i etapami działania systemu, które doprowadziły do danej rekomendacji.
-(Wyjaśnienie powinno być zakorzenione w rzeczywistym przebiegu działania systemu, pokazując, które reguły, dane lub etapy miały wpływ na wynik)])</f>
-        <v>3.235294118</v>
-      </c>
-      <c r="AN36" s="18">
-        <f>AVERAGE(Form_Responses1[Rozszerzalne: Wyjaśnienie odwoływało się do ogólnych pojęć i kategorii, które pomagają zrozumieć również inne, podobne przypadki.
-(Dobre wyjaśnienie może być wykorzystane także w innych kontekstach – bazuje na szerszym rozumieniu pojęć i mechanizmów, nie tylko na konkretnym przypadku)])</f>
-        <v>3.558823529</v>
-      </c>
-      <c r="AO36" s="18">
-        <f>AVERAGE(Form_Responses1[Oparte na źródłach: Wyjaśnienie zawierało odniesienia do źródeł danych i elementów procesu, które zostały użyte do podjęcia decyzji.
-(Użytkownik powinien wiedzieć, skąd pochodzą informacje wykorzystane w wyjaśnieniu – np. dane wejściowe, reguły lub modele)])</f>
-        <v>3.323529412</v>
-      </c>
-      <c r="AP36" s="18">
-        <f>AVERAGE(Form_Responses1[Na ile poniższe wyjaśnienie Pana/Panią satysfakcjonuje?
-Na podstawie Pana/Pani kupionych produktów oraz ocen został zarekomendowany Samsung Galaxy M13 5G.])</f>
-        <v>3.970588235</v>
-      </c>
-      <c r="AQ36" s="19"/>
-      <c r="AR36" s="18">
-        <f>AVERAGE(Form_Responses1[Proste: Wyjaśnienie było łatwe do zrozumienia, ponieważ opierało się na mojej wiedzy i doświadczeniu.
-(Dobre wyjaśnienie powinno być przedstawione w sposób zrozumiały dla użytkownika, bez konieczności posiadania specjalistycznej wiedzy technicznej)])</f>
-        <v>3.823529412</v>
-      </c>
-      <c r="AS36" s="18">
-        <f>AVERAGE(Form_Responses1[Elastyczne: Wyjaśnienie pozwoliło mi skupić się na tych aspektach, które były dla mnie najważniejsze, bez potrzeby poznawania całego procesu działania systemu.
-(Użytkownik powinien mieć możliwość dostosowania głębokości i zakresu wyjaśnienia do swoich potrzeb – nie musi znać wszystkiego, by zrozumieć to, co dla niego istotne)])</f>
-        <v>3.705882353</v>
-      </c>
-      <c r="AT36" s="18">
-        <f>AVERAGE(Form_Responses1[Ugruntowane: Wyjaśnienie było powiązane z konkretnymi zasadami i etapami działania systemu, które doprowadziły do danej rekomendacji.
-(Wyjaśnienie powinno być zakorzenione w rzeczywistym przebiegu działania systemu, pokazując, które reguły, dane lub etapy miały wpływ na wynik)])</f>
-        <v>3.529411765</v>
-      </c>
-      <c r="AU36" s="18">
-        <f>AVERAGE(Form_Responses1[Rozszerzalne: Wyjaśnienie odwoływało się do ogólnych pojęć i kategorii, które pomagają zrozumieć również inne, podobne przypadki.
-(Dobre wyjaśnienie może być wykorzystane także w innych kontekstach – bazuje na szerszym rozumieniu pojęć i mechanizmów, nie tylko na konkretnym przypadku)])</f>
-        <v>3.558823529</v>
-      </c>
-      <c r="AV36" s="18">
-        <f>AVERAGE(Form_Responses1[Oparte na źródłach: Wyjaśnienie zawierało odniesienia do źródeł danych i elementów procesu, które zostały użyte do podjęcia decyzji.
-(Użytkownik powinien wiedzieć, skąd pochodzą informacje wykorzystane w wyjaśnieniu – np. dane wejściowe, reguły lub modele)])</f>
-        <v>3.588235294</v>
-      </c>
-      <c r="AW36" s="18">
-        <f>AVERAGE(Form_Responses1[Na ile poniższe wyjaśnienie Pana/Panią satysfakcjonuje?
-Jako, zainteresował/a się Pan/Pani postem "5 - fotografia sukces" i się Panu/Pani spodobał, zarekomendowaliśmy post "fotografia sukces", który jest podobny.])</f>
-        <v>4</v>
-      </c>
-      <c r="AX36" s="19"/>
-      <c r="AY36" s="18">
-        <f>AVERAGE(Form_Responses1[Proste: Wyjaśnienie było łatwe do zrozumienia, ponieważ opierało się na mojej wiedzy i doświadczeniu.
-(Dobre wyjaśnienie powinno być przedstawione w sposób zrozumiały dla użytkownika, bez konieczności posiadania specjalistycznej wiedzy technicznej)])</f>
-        <v>4.029411765</v>
-      </c>
-      <c r="AZ36" s="18">
-        <f>AVERAGE(Form_Responses1[Elastyczne: Wyjaśnienie pozwoliło mi skupić się na tych aspektach, które były dla mnie najważniejsze, bez potrzeby poznawania całego procesu działania systemu.
-(Użytkownik powinien mieć możliwość dostosowania głębokości i zakresu wyjaśnienia do swoich potrzeb – nie musi znać wszystkiego, by zrozumieć to, co dla niego istotne)])</f>
-        <v>3.823529412</v>
-      </c>
-      <c r="BA36" s="18">
-        <f>AVERAGE(Form_Responses1[Ugruntowane: Wyjaśnienie było powiązane z konkretnymi zasadami i etapami działania systemu, które doprowadziły do danej rekomendacji.
-(Wyjaśnienie powinno być zakorzenione w rzeczywistym przebiegu działania systemu, pokazując, które reguły, dane lub etapy miały wpływ na wynik)])</f>
-        <v>3.705882353</v>
-      </c>
-      <c r="BB36" s="18">
-        <f>AVERAGE(Form_Responses1[Rozszerzalne: Wyjaśnienie odwoływało się do ogólnych pojęć i kategorii, które pomagają zrozumieć również inne, podobne przypadki.
-(Dobre wyjaśnienie może być wykorzystane także w innych kontekstach – bazuje na szerszym rozumieniu pojęć i mechanizmów, nie tylko na konkretnym przypadku)])</f>
-        <v>3.852941176</v>
-      </c>
-      <c r="BC36" s="18">
-        <f>AVERAGE(Form_Responses1[Oparte na źródłach: Wyjaśnienie zawierało odniesienia do źródeł danych i elementów procesu, które zostały użyte do podjęcia decyzji.
-(Użytkownik powinien wiedzieć, skąd pochodzą informacje wykorzystane w wyjaśnieniu – np. dane wejściowe, reguły lub modele)])</f>
-        <v>3.558823529</v>
-      </c>
-      <c r="BD36" s="18">
-        <f>AVERAGE(Form_Responses1[Na ile poniższe wyjaśnienie Pana/Panią satysfakcjonuje?
-Dwójce z czterech użytkowników, którzy mają podobne upodobania do Pana/Pani spodobał się ten post.])</f>
-        <v>3.470588235</v>
-      </c>
-      <c r="BE36" s="19"/>
-      <c r="BF36" s="18">
-        <f>AVERAGE(Form_Responses1[Proste: Wyjaśnienie było łatwe do zrozumienia, ponieważ opierało się na mojej wiedzy i doświadczeniu.
-(Dobre wyjaśnienie powinno być przedstawione w sposób zrozumiały dla użytkownika, bez konieczności posiadania specjalistycznej wiedzy technicznej)])</f>
-        <v>3.676470588</v>
-      </c>
-      <c r="BG36" s="18">
-        <f>AVERAGE(Form_Responses1[Elastyczne: Wyjaśnienie pozwoliło mi skupić się na tych aspektach, które były dla mnie najważniejsze, bez potrzeby poznawania całego procesu działania systemu.
-(Użytkownik powinien mieć możliwość dostosowania głębokości i zakresu wyjaśnienia do swoich potrzeb – nie musi znać wszystkiego, by zrozumieć to, co dla niego istotne)])</f>
-        <v>3.676470588</v>
-      </c>
-      <c r="BH36" s="18">
-        <f>AVERAGE(Form_Responses1[Ugruntowane: Wyjaśnienie było powiązane z konkretnymi zasadami i etapami działania systemu, które doprowadziły do danej rekomendacji.
-(Wyjaśnienie powinno być zakorzenione w rzeczywistym przebiegu działania systemu, pokazując, które reguły, dane lub etapy miały wpływ na wynik)])</f>
-        <v>3.735294118</v>
-      </c>
-      <c r="BI36" s="18">
-        <f>AVERAGE(Form_Responses1[Rozszerzalne: Wyjaśnienie odwoływało się do ogólnych pojęć i kategorii, które pomagają zrozumieć również inne, podobne przypadki.
-(Dobre wyjaśnienie może być wykorzystane także w innych kontekstach – bazuje na szerszym rozumieniu pojęć i mechanizmów, nie tylko na konkretnym przypadku)])</f>
-        <v>3.823529412</v>
-      </c>
-      <c r="BJ36" s="18">
-        <f>AVERAGE(Form_Responses1[Oparte na źródłach: Wyjaśnienie zawierało odniesienia do źródeł danych i elementów procesu, które zostały użyte do podjęcia decyzji.
-(Użytkownik powinien wiedzieć, skąd pochodzą informacje wykorzystane w wyjaśnieniu – np. dane wejściowe, reguły lub modele)])</f>
-        <v>3.529411765</v>
-      </c>
-      <c r="BK36" s="18">
-        <f>AVERAGE(Form_Responses1[Na ile poniższe wyjaśnienie Pana/Panią satysfakcjonuje?
-Na podstawie Pana/Pani historii obejrzanych postów oraz ocen został zarekomendowany post "Pojedynek na RYSOWANIE!".])</f>
-        <v>3.529411765</v>
-      </c>
-      <c r="BL36" s="19"/>
-      <c r="BM36" s="18">
-        <f>AVERAGE(Form_Responses1[Proste: Wyjaśnienie było łatwe do zrozumienia, ponieważ opierało się na mojej wiedzy i doświadczeniu.
-(Dobre wyjaśnienie powinno być przedstawione w sposób zrozumiały dla użytkownika, bez konieczności posiadania specjalistycznej wiedzy technicznej)])</f>
-        <v>3.676470588</v>
-      </c>
-      <c r="BN36" s="18">
-        <f>AVERAGE(Form_Responses1[Elastyczne: Wyjaśnienie pozwoliło mi skupić się na tych aspektach, które były dla mnie najważniejsze, bez potrzeby poznawania całego procesu działania systemu.
-(Użytkownik powinien mieć możliwość dostosowania głębokości i zakresu wyjaśnienia do swoich potrzeb – nie musi znać wszystkiego, by zrozumieć to, co dla niego istotne)])</f>
-        <v>3.294117647</v>
-      </c>
-      <c r="BO36" s="18">
-        <f>AVERAGE(Form_Responses1[Ugruntowane: Wyjaśnienie było powiązane z konkretnymi zasadami i etapami działania systemu, które doprowadziły do danej rekomendacji.
-(Wyjaśnienie powinno być zakorzenione w rzeczywistym przebiegu działania systemu, pokazując, które reguły, dane lub etapy miały wpływ na wynik)])</f>
-        <v>3.323529412</v>
-      </c>
-      <c r="BP36" s="18">
-        <f>AVERAGE(Form_Responses1[Rozszerzalne: Wyjaśnienie odwoływało się do ogólnych pojęć i kategorii, które pomagają zrozumieć również inne, podobne przypadki.
-(Dobre wyjaśnienie może być wykorzystane także w innych kontekstach – bazuje na szerszym rozumieniu pojęć i mechanizmów, nie tylko na konkretnym przypadku)])</f>
-        <v>3.411764706</v>
-      </c>
-      <c r="BQ36" s="18">
-        <f>AVERAGE(Form_Responses1[Oparte na źródłach: Wyjaśnienie zawierało odniesienia do źródeł danych i elementów procesu, które zostały użyte do podjęcia decyzji.
-(Użytkownik powinien wiedzieć, skąd pochodzą informacje wykorzystane w wyjaśnieniu – np. dane wejściowe, reguły lub modele)])</f>
-        <v>3.205882353</v>
-      </c>
-      <c r="BR36" s="20"/>
+        <v>3.228571429</v>
+      </c>
+      <c r="BR37" s="20"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/reports/explainability/Wytłumaczalność rekomendacji (Odpowiedzi).xlsx
+++ b/reports/explainability/Wytłumaczalność rekomendacji (Odpowiedzi).xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="86">
   <si>
     <t>Sygnatura czasowa</t>
   </si>
@@ -627,7 +627,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" totalsRowCount="1" headerRowCount="0" ref="A1:BR37" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" totalsRowCount="1" headerRowCount="0" ref="A1:BR38" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="70">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -7694,292 +7694,474 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="17"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18">
+      <c r="A37" s="9">
+        <v>45817.44936143518</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G37" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="I37" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="J37" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="K37" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="L37" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="M37" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="N37" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="P37" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="Q37" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="R37" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="S37" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="T37" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="U37" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="W37" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="X37" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="Y37" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="Z37" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AA37" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AB37" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="AD37" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="AE37" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AF37" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AG37" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="AH37" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="AI37" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="AK37" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="AL37" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AM37" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="AN37" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AO37" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="AP37" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="AR37" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AS37" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AT37" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AU37" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AV37" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="AW37" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="AY37" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="AZ37" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="BA37" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="BB37" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="BC37" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="BD37" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="BF37" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="BG37" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="BH37" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="BI37" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="BJ37" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="BK37" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="BM37" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="BN37" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="BO37" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="BP37" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="BQ37" s="10">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="17"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18">
         <f>AVERAGE(Form_Responses1[Na ile poniższe wyjaśnienie Pana/Panią satysfakcjonuje?
 Jako, że obejrzał/a Pan/Pani film "Ich troje" i Pana/Panią zachwycił, zarekomendowaliśmy film "Tylko ty", który jest bardzo podobny.])</f>
-        <v>3.6</v>
-      </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="18">
+        <v>3.583333333</v>
+      </c>
+      <c r="H38" s="19"/>
+      <c r="I38" s="18">
         <f>AVERAGE(Form_Responses1[Proste: Wyjaśnienie było łatwe do zrozumienia, ponieważ opierało się na mojej wiedzy i doświadczeniu.
 (Dobre wyjaśnienie powinno być przedstawione w sposób zrozumiały dla użytkownika, bez konieczności posiadania specjalistycznej wiedzy technicznej)])</f>
-        <v>4.228571429</v>
-      </c>
-      <c r="J37" s="18">
+        <v>4.25</v>
+      </c>
+      <c r="J38" s="18">
         <f>AVERAGE(Form_Responses1[Elastyczne: Wyjaśnienie pozwoliło mi skupić się na tych aspektach, które były dla mnie najważniejsze, bez potrzeby poznawania całego procesu działania systemu.
 (Użytkownik powinien mieć możliwość dostosowania głębokości i zakresu wyjaśnienia do swoich potrzeb – nie musi znać wszystkiego, by zrozumieć to, co dla niego istotne)])</f>
-        <v>3.885714286</v>
-      </c>
-      <c r="K37" s="18">
+        <v>3.861111111</v>
+      </c>
+      <c r="K38" s="18">
         <f>AVERAGE(Form_Responses1[Ugruntowane: Wyjaśnienie było powiązane z konkretnymi zasadami i etapami działania systemu, które doprowadziły do danej rekomendacji.
 (Wyjaśnienie powinno być zakorzenione w rzeczywistym przebiegu działania systemu, pokazując, które reguły, dane lub etapy miały wpływ na wynik)])</f>
-        <v>3.714285714</v>
-      </c>
-      <c r="L37" s="18">
+        <v>3.694444444</v>
+      </c>
+      <c r="L38" s="18">
         <f>AVERAGE(Form_Responses1[Rozszerzalne: Wyjaśnienie odwoływało się do ogólnych pojęć i kategorii, które pomagają zrozumieć również inne, podobne przypadki.
 (Dobre wyjaśnienie może być wykorzystane także w innych kontekstach – bazuje na szerszym rozumieniu pojęć i mechanizmów, nie tylko na konkretnym przypadku)])</f>
-        <v>3.714285714</v>
-      </c>
-      <c r="M37" s="18">
+        <v>3.694444444</v>
+      </c>
+      <c r="M38" s="18">
         <f>AVERAGE(Form_Responses1[Oparte na źródłach: Wyjaśnienie zawierało odniesienia do źródeł danych i elementów procesu, które zostały użyte do podjęcia decyzji.
 (Użytkownik powinien wiedzieć, skąd pochodzą informacje wykorzystane w wyjaśnieniu – np. dane wejściowe, reguły lub modele)])</f>
-        <v>3.257142857</v>
-      </c>
-      <c r="N37" s="18">
+        <v>3.25</v>
+      </c>
+      <c r="N38" s="18">
         <f>AVERAGE(Form_Responses1[Na ile poniższe wyjaśnienie Pana/Panią satysfakcjonuje?
 Dwójce z trzech użytkowników, którzy mają podobne upodobania do Pana/Pani spodobał się film "Park Jurajski".])</f>
-        <v>3.628571429</v>
-      </c>
-      <c r="O37" s="19"/>
-      <c r="P37" s="18">
+        <v>3.638888889</v>
+      </c>
+      <c r="O38" s="19"/>
+      <c r="P38" s="18">
         <f>AVERAGE(Form_Responses1[Proste: Wyjaśnienie było łatwe do zrozumienia, ponieważ opierało się na mojej wiedzy i doświadczeniu.
 (Dobre wyjaśnienie powinno być przedstawione w sposób zrozumiały dla użytkownika, bez konieczności posiadania specjalistycznej wiedzy technicznej)])</f>
-        <v>3.971428571</v>
-      </c>
-      <c r="Q37" s="18">
+        <v>3.972222222</v>
+      </c>
+      <c r="Q38" s="18">
         <f>AVERAGE(Form_Responses1[Elastyczne: Wyjaśnienie pozwoliło mi skupić się na tych aspektach, które były dla mnie najważniejsze, bez potrzeby poznawania całego procesu działania systemu.
 (Użytkownik powinien mieć możliwość dostosowania głębokości i zakresu wyjaśnienia do swoich potrzeb – nie musi znać wszystkiego, by zrozumieć to, co dla niego istotne)])</f>
-        <v>3.571428571</v>
-      </c>
-      <c r="R37" s="18">
+        <v>3.583333333</v>
+      </c>
+      <c r="R38" s="18">
         <f>AVERAGE(Form_Responses1[Ugruntowane: Wyjaśnienie było powiązane z konkretnymi zasadami i etapami działania systemu, które doprowadziły do danej rekomendacji.
 (Wyjaśnienie powinno być zakorzenione w rzeczywistym przebiegu działania systemu, pokazując, które reguły, dane lub etapy miały wpływ na wynik)])</f>
-        <v>3.657142857</v>
-      </c>
-      <c r="S37" s="18">
+        <v>3.638888889</v>
+      </c>
+      <c r="S38" s="18">
         <f>AVERAGE(Form_Responses1[Rozszerzalne: Wyjaśnienie odwoływało się do ogólnych pojęć i kategorii, które pomagają zrozumieć również inne, podobne przypadki.
 (Dobre wyjaśnienie może być wykorzystane także w innych kontekstach – bazuje na szerszym rozumieniu pojęć i mechanizmów, nie tylko na konkretnym przypadku)])</f>
-        <v>3.857142857</v>
-      </c>
-      <c r="T37" s="18">
+        <v>3.833333333</v>
+      </c>
+      <c r="T38" s="18">
         <f>AVERAGE(Form_Responses1[Oparte na źródłach: Wyjaśnienie zawierało odniesienia do źródeł danych i elementów procesu, które zostały użyte do podjęcia decyzji.
 (Użytkownik powinien wiedzieć, skąd pochodzą informacje wykorzystane w wyjaśnieniu – np. dane wejściowe, reguły lub modele)])</f>
-        <v>3.514285714</v>
-      </c>
-      <c r="U37" s="18">
+        <v>3.555555556</v>
+      </c>
+      <c r="U38" s="18">
         <f>AVERAGE(Form_Responses1[Na ile poniższe wyjaśnienie Pana/Panią satysfakcjonuje?
 Na podstawie Pana/Pani historii obejrzanych filmów oraz ocen został zarekomendowany film "Spragnieni miłości".])</f>
-        <v>3.314285714</v>
-      </c>
-      <c r="V37" s="19"/>
-      <c r="W37" s="18">
+        <v>3.305555556</v>
+      </c>
+      <c r="V38" s="19"/>
+      <c r="W38" s="18">
         <f>AVERAGE(Form_Responses1[Proste: Wyjaśnienie było łatwe do zrozumienia, ponieważ opierało się na mojej wiedzy i doświadczeniu.
 (Dobre wyjaśnienie powinno być przedstawione w sposób zrozumiały dla użytkownika, bez konieczności posiadania specjalistycznej wiedzy technicznej)])</f>
-        <v>3.657142857</v>
-      </c>
-      <c r="X37" s="18">
+        <v>3.638888889</v>
+      </c>
+      <c r="X38" s="18">
         <f>AVERAGE(Form_Responses1[Elastyczne: Wyjaśnienie pozwoliło mi skupić się na tych aspektach, które były dla mnie najważniejsze, bez potrzeby poznawania całego procesu działania systemu.
 (Użytkownik powinien mieć możliwość dostosowania głębokości i zakresu wyjaśnienia do swoich potrzeb – nie musi znać wszystkiego, by zrozumieć to, co dla niego istotne)])</f>
-        <v>3.6</v>
-      </c>
-      <c r="Y37" s="18">
+        <v>3.583333333</v>
+      </c>
+      <c r="Y38" s="18">
         <f>AVERAGE(Form_Responses1[Ugruntowane: Wyjaśnienie było powiązane z konkretnymi zasadami i etapami działania systemu, które doprowadziły do danej rekomendacji.
 (Wyjaśnienie powinno być zakorzenione w rzeczywistym przebiegu działania systemu, pokazując, które reguły, dane lub etapy miały wpływ na wynik)])</f>
-        <v>3.371428571</v>
-      </c>
-      <c r="Z37" s="18">
+        <v>3.361111111</v>
+      </c>
+      <c r="Z38" s="18">
         <f>AVERAGE(Form_Responses1[Rozszerzalne: Wyjaśnienie odwoływało się do ogólnych pojęć i kategorii, które pomagają zrozumieć również inne, podobne przypadki.
 (Dobre wyjaśnienie może być wykorzystane także w innych kontekstach – bazuje na szerszym rozumieniu pojęć i mechanizmów, nie tylko na konkretnym przypadku)])</f>
-        <v>3.485714286</v>
-      </c>
-      <c r="AA37" s="18">
+        <v>3.472222222</v>
+      </c>
+      <c r="AA38" s="18">
         <f>AVERAGE(Form_Responses1[Oparte na źródłach: Wyjaśnienie zawierało odniesienia do źródeł danych i elementów procesu, które zostały użyte do podjęcia decyzji.
 (Użytkownik powinien wiedzieć, skąd pochodzą informacje wykorzystane w wyjaśnieniu – np. dane wejściowe, reguły lub modele)])</f>
-        <v>2.971428571</v>
-      </c>
-      <c r="AB37" s="18">
+        <v>2.972222222</v>
+      </c>
+      <c r="AB38" s="18">
         <f>AVERAGE(Form_Responses1[Na ile poniższe wyjaśnienie Pana/Panią satysfakcjonuje?
 Jako, że kupił Pan/Pani czerwony telefon Nokia i był/a nim Pan/Pani zachwycony/a, zarekomendowaliśmy grafitowy telefon Nokia, który jest bardzo podobny.])</f>
-        <v>3.457142857</v>
-      </c>
-      <c r="AC37" s="19"/>
-      <c r="AD37" s="18">
+        <v>3.472222222</v>
+      </c>
+      <c r="AC38" s="19"/>
+      <c r="AD38" s="18">
         <f>AVERAGE(Form_Responses1[Proste: Wyjaśnienie było łatwe do zrozumienia, ponieważ opierało się na mojej wiedzy i doświadczeniu.
 (Dobre wyjaśnienie powinno być przedstawione w sposób zrozumiały dla użytkownika, bez konieczności posiadania specjalistycznej wiedzy technicznej)])</f>
-        <v>4.142857143</v>
-      </c>
-      <c r="AE37" s="18">
+        <v>4.138888889</v>
+      </c>
+      <c r="AE38" s="18">
         <f>AVERAGE(Form_Responses1[Elastyczne: Wyjaśnienie pozwoliło mi skupić się na tych aspektach, które były dla mnie najważniejsze, bez potrzeby poznawania całego procesu działania systemu.
 (Użytkownik powinien mieć możliwość dostosowania głębokości i zakresu wyjaśnienia do swoich potrzeb – nie musi znać wszystkiego, by zrozumieć to, co dla niego istotne)])</f>
-        <v>3.628571429</v>
-      </c>
-      <c r="AF37" s="18">
+        <v>3.611111111</v>
+      </c>
+      <c r="AF38" s="18">
         <f>AVERAGE(Form_Responses1[Ugruntowane: Wyjaśnienie było powiązane z konkretnymi zasadami i etapami działania systemu, które doprowadziły do danej rekomendacji.
 (Wyjaśnienie powinno być zakorzenione w rzeczywistym przebiegu działania systemu, pokazując, które reguły, dane lub etapy miały wpływ na wynik)])</f>
-        <v>3.542857143</v>
-      </c>
-      <c r="AG37" s="18">
+        <v>3.527777778</v>
+      </c>
+      <c r="AG38" s="18">
         <f>AVERAGE(Form_Responses1[Rozszerzalne: Wyjaśnienie odwoływało się do ogólnych pojęć i kategorii, które pomagają zrozumieć również inne, podobne przypadki.
 (Dobre wyjaśnienie może być wykorzystane także w innych kontekstach – bazuje na szerszym rozumieniu pojęć i mechanizmów, nie tylko na konkretnym przypadku)])</f>
-        <v>3.485714286</v>
-      </c>
-      <c r="AH37" s="18">
+        <v>3.5</v>
+      </c>
+      <c r="AH38" s="18">
         <f>AVERAGE(Form_Responses1[Oparte na źródłach: Wyjaśnienie zawierało odniesienia do źródeł danych i elementów procesu, które zostały użyte do podjęcia decyzji.
 (Użytkownik powinien wiedzieć, skąd pochodzą informacje wykorzystane w wyjaśnieniu – np. dane wejściowe, reguły lub modele)])</f>
-        <v>3.571428571</v>
-      </c>
-      <c r="AI37" s="18">
+        <v>3.583333333</v>
+      </c>
+      <c r="AI38" s="18">
         <f>AVERAGE(Form_Responses1[Na ile poniższe wyjaśnienie Pana/Panią satysfakcjonuje?
 Jeden z czterech użytkowników, którzy mają podobne upodobania do Pana/Pani kupił smartwatch Fire-Boltt.])</f>
-        <v>3.228571429</v>
-      </c>
-      <c r="AJ37" s="19"/>
-      <c r="AK37" s="18">
+        <v>3.277777778</v>
+      </c>
+      <c r="AJ38" s="19"/>
+      <c r="AK38" s="18">
         <f>AVERAGE(Form_Responses1[Proste: Wyjaśnienie było łatwe do zrozumienia, ponieważ opierało się na mojej wiedzy i doświadczeniu.
 (Dobre wyjaśnienie powinno być przedstawione w sposób zrozumiały dla użytkownika, bez konieczności posiadania specjalistycznej wiedzy technicznej)])</f>
-        <v>3.4</v>
-      </c>
-      <c r="AL37" s="18">
+        <v>3.416666667</v>
+      </c>
+      <c r="AL38" s="18">
         <f>AVERAGE(Form_Responses1[Elastyczne: Wyjaśnienie pozwoliło mi skupić się na tych aspektach, które były dla mnie najważniejsze, bez potrzeby poznawania całego procesu działania systemu.
 (Użytkownik powinien mieć możliwość dostosowania głębokości i zakresu wyjaśnienia do swoich potrzeb – nie musi znać wszystkiego, by zrozumieć to, co dla niego istotne)])</f>
-        <v>3.485714286</v>
-      </c>
-      <c r="AM37" s="18">
+        <v>3.472222222</v>
+      </c>
+      <c r="AM38" s="18">
         <f>AVERAGE(Form_Responses1[Ugruntowane: Wyjaśnienie było powiązane z konkretnymi zasadami i etapami działania systemu, które doprowadziły do danej rekomendacji.
 (Wyjaśnienie powinno być zakorzenione w rzeczywistym przebiegu działania systemu, pokazując, które reguły, dane lub etapy miały wpływ na wynik)])</f>
-        <v>3.2</v>
-      </c>
-      <c r="AN37" s="18">
+        <v>3.222222222</v>
+      </c>
+      <c r="AN38" s="18">
         <f>AVERAGE(Form_Responses1[Rozszerzalne: Wyjaśnienie odwoływało się do ogólnych pojęć i kategorii, które pomagają zrozumieć również inne, podobne przypadki.
 (Dobre wyjaśnienie może być wykorzystane także w innych kontekstach – bazuje na szerszym rozumieniu pojęć i mechanizmów, nie tylko na konkretnym przypadku)])</f>
-        <v>3.571428571</v>
-      </c>
-      <c r="AO37" s="18">
+        <v>3.555555556</v>
+      </c>
+      <c r="AO38" s="18">
         <f>AVERAGE(Form_Responses1[Oparte na źródłach: Wyjaśnienie zawierało odniesienia do źródeł danych i elementów procesu, które zostały użyte do podjęcia decyzji.
 (Użytkownik powinien wiedzieć, skąd pochodzą informacje wykorzystane w wyjaśnieniu – np. dane wejściowe, reguły lub modele)])</f>
-        <v>3.342857143</v>
-      </c>
-      <c r="AP37" s="18">
+        <v>3.361111111</v>
+      </c>
+      <c r="AP38" s="18">
         <f>AVERAGE(Form_Responses1[Na ile poniższe wyjaśnienie Pana/Panią satysfakcjonuje?
 Na podstawie Pana/Pani kupionych produktów oraz ocen został zarekomendowany Samsung Galaxy M13 5G.])</f>
-        <v>3.971428571</v>
-      </c>
-      <c r="AQ37" s="19"/>
-      <c r="AR37" s="18">
+        <v>3.972222222</v>
+      </c>
+      <c r="AQ38" s="19"/>
+      <c r="AR38" s="18">
         <f>AVERAGE(Form_Responses1[Proste: Wyjaśnienie było łatwe do zrozumienia, ponieważ opierało się na mojej wiedzy i doświadczeniu.
 (Dobre wyjaśnienie powinno być przedstawione w sposób zrozumiały dla użytkownika, bez konieczności posiadania specjalistycznej wiedzy technicznej)])</f>
-        <v>3.8</v>
-      </c>
-      <c r="AS37" s="18">
+        <v>3.777777778</v>
+      </c>
+      <c r="AS38" s="18">
         <f>AVERAGE(Form_Responses1[Elastyczne: Wyjaśnienie pozwoliło mi skupić się na tych aspektach, które były dla mnie najważniejsze, bez potrzeby poznawania całego procesu działania systemu.
 (Użytkownik powinien mieć możliwość dostosowania głębokości i zakresu wyjaśnienia do swoich potrzeb – nie musi znać wszystkiego, by zrozumieć to, co dla niego istotne)])</f>
-        <v>3.714285714</v>
-      </c>
-      <c r="AT37" s="18">
+        <v>3.694444444</v>
+      </c>
+      <c r="AT38" s="18">
         <f>AVERAGE(Form_Responses1[Ugruntowane: Wyjaśnienie było powiązane z konkretnymi zasadami i etapami działania systemu, które doprowadziły do danej rekomendacji.
 (Wyjaśnienie powinno być zakorzenione w rzeczywistym przebiegu działania systemu, pokazując, które reguły, dane lub etapy miały wpływ na wynik)])</f>
-        <v>3.542857143</v>
-      </c>
-      <c r="AU37" s="18">
+        <v>3.527777778</v>
+      </c>
+      <c r="AU38" s="18">
         <f>AVERAGE(Form_Responses1[Rozszerzalne: Wyjaśnienie odwoływało się do ogólnych pojęć i kategorii, które pomagają zrozumieć również inne, podobne przypadki.
 (Dobre wyjaśnienie może być wykorzystane także w innych kontekstach – bazuje na szerszym rozumieniu pojęć i mechanizmów, nie tylko na konkretnym przypadku)])</f>
-        <v>3.571428571</v>
-      </c>
-      <c r="AV37" s="18">
+        <v>3.555555556</v>
+      </c>
+      <c r="AV38" s="18">
         <f>AVERAGE(Form_Responses1[Oparte na źródłach: Wyjaśnienie zawierało odniesienia do źródeł danych i elementów procesu, które zostały użyte do podjęcia decyzji.
 (Użytkownik powinien wiedzieć, skąd pochodzą informacje wykorzystane w wyjaśnieniu – np. dane wejściowe, reguły lub modele)])</f>
-        <v>3.6</v>
-      </c>
-      <c r="AW37" s="18">
+        <v>3.611111111</v>
+      </c>
+      <c r="AW38" s="18">
         <f>AVERAGE(Form_Responses1[Na ile poniższe wyjaśnienie Pana/Panią satysfakcjonuje?
 Jako, zainteresował/a się Pan/Pani postem "5 - fotografia sukces" i się Panu/Pani spodobał, zarekomendowaliśmy post "fotografia sukces", który jest podobny.])</f>
         <v>4</v>
       </c>
-      <c r="AX37" s="19"/>
-      <c r="AY37" s="18">
+      <c r="AX38" s="19"/>
+      <c r="AY38" s="18">
         <f>AVERAGE(Form_Responses1[Proste: Wyjaśnienie było łatwe do zrozumienia, ponieważ opierało się na mojej wiedzy i doświadczeniu.
 (Dobre wyjaśnienie powinno być przedstawione w sposób zrozumiały dla użytkownika, bez konieczności posiadania specjalistycznej wiedzy technicznej)])</f>
         <v>4</v>
       </c>
-      <c r="AZ37" s="18">
+      <c r="AZ38" s="18">
         <f>AVERAGE(Form_Responses1[Elastyczne: Wyjaśnienie pozwoliło mi skupić się na tych aspektach, które były dla mnie najważniejsze, bez potrzeby poznawania całego procesu działania systemu.
 (Użytkownik powinien mieć możliwość dostosowania głębokości i zakresu wyjaśnienia do swoich potrzeb – nie musi znać wszystkiego, by zrozumieć to, co dla niego istotne)])</f>
-        <v>3.828571429</v>
-      </c>
-      <c r="BA37" s="18">
+        <v>3.833333333</v>
+      </c>
+      <c r="BA38" s="18">
         <f>AVERAGE(Form_Responses1[Ugruntowane: Wyjaśnienie było powiązane z konkretnymi zasadami i etapami działania systemu, które doprowadziły do danej rekomendacji.
 (Wyjaśnienie powinno być zakorzenione w rzeczywistym przebiegu działania systemu, pokazując, które reguły, dane lub etapy miały wpływ na wynik)])</f>
-        <v>3.714285714</v>
-      </c>
-      <c r="BB37" s="18">
+        <v>3.722222222</v>
+      </c>
+      <c r="BB38" s="18">
         <f>AVERAGE(Form_Responses1[Rozszerzalne: Wyjaśnienie odwoływało się do ogólnych pojęć i kategorii, które pomagają zrozumieć również inne, podobne przypadki.
 (Dobre wyjaśnienie może być wykorzystane także w innych kontekstach – bazuje na szerszym rozumieniu pojęć i mechanizmów, nie tylko na konkretnym przypadku)])</f>
-        <v>3.857142857</v>
-      </c>
-      <c r="BC37" s="18">
+        <v>3.861111111</v>
+      </c>
+      <c r="BC38" s="18">
         <f>AVERAGE(Form_Responses1[Oparte na źródłach: Wyjaśnienie zawierało odniesienia do źródeł danych i elementów procesu, które zostały użyte do podjęcia decyzji.
 (Użytkownik powinien wiedzieć, skąd pochodzą informacje wykorzystane w wyjaśnieniu – np. dane wejściowe, reguły lub modele)])</f>
-        <v>3.514285714</v>
-      </c>
-      <c r="BD37" s="18">
+        <v>3.527777778</v>
+      </c>
+      <c r="BD38" s="18">
         <f>AVERAGE(Form_Responses1[Na ile poniższe wyjaśnienie Pana/Panią satysfakcjonuje?
 Dwójce z czterech użytkowników, którzy mają podobne upodobania do Pana/Pani spodobał się ten post.])</f>
-        <v>3.485714286</v>
-      </c>
-      <c r="BE37" s="19"/>
-      <c r="BF37" s="18">
+        <v>3.472222222</v>
+      </c>
+      <c r="BE38" s="19"/>
+      <c r="BF38" s="18">
         <f>AVERAGE(Form_Responses1[Proste: Wyjaśnienie było łatwe do zrozumienia, ponieważ opierało się na mojej wiedzy i doświadczeniu.
 (Dobre wyjaśnienie powinno być przedstawione w sposób zrozumiały dla użytkownika, bez konieczności posiadania specjalistycznej wiedzy technicznej)])</f>
-        <v>3.685714286</v>
-      </c>
-      <c r="BG37" s="18">
+        <v>3.666666667</v>
+      </c>
+      <c r="BG38" s="18">
         <f>AVERAGE(Form_Responses1[Elastyczne: Wyjaśnienie pozwoliło mi skupić się na tych aspektach, które były dla mnie najważniejsze, bez potrzeby poznawania całego procesu działania systemu.
 (Użytkownik powinien mieć możliwość dostosowania głębokości i zakresu wyjaśnienia do swoich potrzeb – nie musi znać wszystkiego, by zrozumieć to, co dla niego istotne)])</f>
-        <v>3.685714286</v>
-      </c>
-      <c r="BH37" s="18">
+        <v>3.666666667</v>
+      </c>
+      <c r="BH38" s="18">
         <f>AVERAGE(Form_Responses1[Ugruntowane: Wyjaśnienie było powiązane z konkretnymi zasadami i etapami działania systemu, które doprowadziły do danej rekomendacji.
 (Wyjaśnienie powinno być zakorzenione w rzeczywistym przebiegu działania systemu, pokazując, które reguły, dane lub etapy miały wpływ na wynik)])</f>
-        <v>3.714285714</v>
-      </c>
-      <c r="BI37" s="18">
+        <v>3.694444444</v>
+      </c>
+      <c r="BI38" s="18">
         <f>AVERAGE(Form_Responses1[Rozszerzalne: Wyjaśnienie odwoływało się do ogólnych pojęć i kategorii, które pomagają zrozumieć również inne, podobne przypadki.
 (Dobre wyjaśnienie może być wykorzystane także w innych kontekstach – bazuje na szerszym rozumieniu pojęć i mechanizmów, nie tylko na konkretnym przypadku)])</f>
-        <v>3.8</v>
-      </c>
-      <c r="BJ37" s="18">
+        <v>3.777777778</v>
+      </c>
+      <c r="BJ38" s="18">
         <f>AVERAGE(Form_Responses1[Oparte na źródłach: Wyjaśnienie zawierało odniesienia do źródeł danych i elementów procesu, które zostały użyte do podjęcia decyzji.
 (Użytkownik powinien wiedzieć, skąd pochodzą informacje wykorzystane w wyjaśnieniu – np. dane wejściowe, reguły lub modele)])</f>
-        <v>3.514285714</v>
-      </c>
-      <c r="BK37" s="18">
+        <v>3.5</v>
+      </c>
+      <c r="BK38" s="18">
         <f>AVERAGE(Form_Responses1[Na ile poniższe wyjaśnienie Pana/Panią satysfakcjonuje?
 Na podstawie Pana/Pani historii obejrzanych postów oraz ocen został zarekomendowany post "Pojedynek na RYSOWANIE!".])</f>
-        <v>3.542857143</v>
-      </c>
-      <c r="BL37" s="19"/>
-      <c r="BM37" s="18">
+        <v>3.555555556</v>
+      </c>
+      <c r="BL38" s="19"/>
+      <c r="BM38" s="18">
         <f>AVERAGE(Form_Responses1[Proste: Wyjaśnienie było łatwe do zrozumienia, ponieważ opierało się na mojej wiedzy i doświadczeniu.
 (Dobre wyjaśnienie powinno być przedstawione w sposób zrozumiały dla użytkownika, bez konieczności posiadania specjalistycznej wiedzy technicznej)])</f>
-        <v>3.657142857</v>
-      </c>
-      <c r="BN37" s="18">
+        <v>3.666666667</v>
+      </c>
+      <c r="BN38" s="18">
         <f>AVERAGE(Form_Responses1[Elastyczne: Wyjaśnienie pozwoliło mi skupić się na tych aspektach, które były dla mnie najważniejsze, bez potrzeby poznawania całego procesu działania systemu.
 (Użytkownik powinien mieć możliwość dostosowania głębokości i zakresu wyjaśnienia do swoich potrzeb – nie musi znać wszystkiego, by zrozumieć to, co dla niego istotne)])</f>
-        <v>3.314285714</v>
-      </c>
-      <c r="BO37" s="18">
+        <v>3.333333333</v>
+      </c>
+      <c r="BO38" s="18">
         <f>AVERAGE(Form_Responses1[Ugruntowane: Wyjaśnienie było powiązane z konkretnymi zasadami i etapami działania systemu, które doprowadziły do danej rekomendacji.
 (Wyjaśnienie powinno być zakorzenione w rzeczywistym przebiegu działania systemu, pokazując, które reguły, dane lub etapy miały wpływ na wynik)])</f>
-        <v>3.285714286</v>
-      </c>
-      <c r="BP37" s="18">
+        <v>3.305555556</v>
+      </c>
+      <c r="BP38" s="18">
         <f>AVERAGE(Form_Responses1[Rozszerzalne: Wyjaśnienie odwoływało się do ogólnych pojęć i kategorii, które pomagają zrozumieć również inne, podobne przypadki.
 (Dobre wyjaśnienie może być wykorzystane także w innych kontekstach – bazuje na szerszym rozumieniu pojęć i mechanizmów, nie tylko na konkretnym przypadku)])</f>
-        <v>3.428571429</v>
-      </c>
-      <c r="BQ37" s="18">
+        <v>3.416666667</v>
+      </c>
+      <c r="BQ38" s="18">
         <f>AVERAGE(Form_Responses1[Oparte na źródłach: Wyjaśnienie zawierało odniesienia do źródeł danych i elementów procesu, które zostały użyte do podjęcia decyzji.
 (Użytkownik powinien wiedzieć, skąd pochodzą informacje wykorzystane w wyjaśnieniu – np. dane wejściowe, reguły lub modele)])</f>
-        <v>3.228571429</v>
-      </c>
-      <c r="BR37" s="20"/>
+        <v>3.25</v>
+      </c>
+      <c r="BR38" s="20"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
